--- a/runs/run329/NotionalETEOutput329.xlsx
+++ b/runs/run329/NotionalETEOutput329.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_HELLMASKER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_47.MISSILE_HIGHWIND2_47</t>
+    <t>MISSILE_HELLMASKER0_169.MISSILE_HELLMASKER0_169</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_HELLMASKER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1561.282611275784</v>
+        <v>-1539.218885327271</v>
       </c>
       <c r="J2">
-        <v>2023.60968521545</v>
+        <v>1923.249213341145</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1528.504550987212</v>
+        <v>-1418.45956769615</v>
       </c>
       <c r="J3">
-        <v>1920.006283960325</v>
+        <v>2012.278098212872</v>
       </c>
       <c r="K3">
-        <v>288.7890913747656</v>
+        <v>309.8045463173045</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1428.844205550766</v>
+        <v>-1471.417816594876</v>
       </c>
       <c r="J4">
-        <v>1955.293742548982</v>
+        <v>1844.04407986158</v>
       </c>
       <c r="K4">
-        <v>598.4442149590608</v>
+        <v>574.3127480045224</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1477.168383177511</v>
+        <v>-1411.505817116496</v>
       </c>
       <c r="J5">
-        <v>1822.802623653101</v>
+        <v>1835.99913929736</v>
       </c>
       <c r="K5">
-        <v>897.6534450803053</v>
+        <v>893.9459324007461</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1332.236559841363</v>
+        <v>-1309.759365124277</v>
       </c>
       <c r="J6">
-        <v>1735.955292840595</v>
+        <v>1885.149239025719</v>
       </c>
       <c r="K6">
-        <v>1085.195652878447</v>
+        <v>1128.17164952519</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1353.37188667311</v>
+        <v>-1338.073199405566</v>
       </c>
       <c r="J7">
-        <v>1785.295977414053</v>
+        <v>1762.245935917349</v>
       </c>
       <c r="K7">
-        <v>1399.598491909866</v>
+        <v>1375.177215666658</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1311.690651593015</v>
+        <v>-1284.522227334216</v>
       </c>
       <c r="J8">
-        <v>1708.562652021363</v>
+        <v>1776.474576501712</v>
       </c>
       <c r="K8">
-        <v>1584.25875711532</v>
+        <v>1571.768808827391</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.14548034754313</v>
+        <v>-101.7560370788939</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1221.977952158197</v>
+        <v>-1221.671975492808</v>
       </c>
       <c r="J9">
-        <v>1650.53133745192</v>
+        <v>1700.102259946191</v>
       </c>
       <c r="K9">
-        <v>1759.544405339358</v>
+        <v>1739.189742003749</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>209.2420615379273</v>
+        <v>225.9348607432262</v>
       </c>
       <c r="G10">
-        <v>-86.82631919629006</v>
+        <v>-80.05727879065832</v>
       </c>
       <c r="H10">
-        <v>880.3786098633707</v>
+        <v>829.4262139318107</v>
       </c>
       <c r="I10">
-        <v>-1183.75497953294</v>
+        <v>-1247.500163728648</v>
       </c>
       <c r="J10">
-        <v>1578.337746471341</v>
+        <v>1662.480498181135</v>
       </c>
       <c r="K10">
-        <v>2023.575953413977</v>
+        <v>2024.200799800973</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.138453667939</v>
+        <v>164.1952626736824</v>
       </c>
       <c r="G11">
-        <v>-67.95479455668915</v>
+        <v>-68.00707293669615</v>
       </c>
       <c r="H11">
-        <v>1076.551435945684</v>
+        <v>1091.430998030163</v>
       </c>
       <c r="I11">
-        <v>-1199.977888094551</v>
+        <v>-1187.782706613794</v>
       </c>
       <c r="J11">
-        <v>1600.684642668801</v>
+        <v>1549.311358559562</v>
       </c>
       <c r="K11">
-        <v>2155.022246054157</v>
+        <v>2131.038596589097</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.7621493304896</v>
+        <v>141.0323678586987</v>
       </c>
       <c r="G12">
-        <v>-48.13345642744567</v>
+        <v>-51.27506087542459</v>
       </c>
       <c r="H12">
-        <v>1168.656377543563</v>
+        <v>1137.789263202683</v>
       </c>
       <c r="I12">
-        <v>-1140.639507786339</v>
+        <v>-1167.660007712311</v>
       </c>
       <c r="J12">
-        <v>1543.160172207737</v>
+        <v>1487.392221930597</v>
       </c>
       <c r="K12">
-        <v>2308.432363904696</v>
+        <v>2330.347421000827</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.8508473601245</v>
+        <v>124.1519497850821</v>
       </c>
       <c r="G13">
-        <v>-35.63634770321086</v>
+        <v>-32.35372593173108</v>
       </c>
       <c r="H13">
-        <v>1321.613923607431</v>
+        <v>1307.622793776786</v>
       </c>
       <c r="I13">
-        <v>-1147.150268080891</v>
+        <v>-1095.721429281065</v>
       </c>
       <c r="J13">
-        <v>1408.962641358414</v>
+        <v>1515.564355830996</v>
       </c>
       <c r="K13">
-        <v>2571.109775313416</v>
+        <v>2604.938022640019</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.1644411057531</v>
+        <v>114.8636394038656</v>
       </c>
       <c r="G14">
-        <v>-18.21799932692803</v>
+        <v>-16.59028736789692</v>
       </c>
       <c r="H14">
-        <v>1316.053952623762</v>
+        <v>1325.682633657037</v>
       </c>
       <c r="I14">
-        <v>-1040.822221847078</v>
+        <v>-1064.27387957053</v>
       </c>
       <c r="J14">
-        <v>1348.721557972048</v>
+        <v>1405.102863978613</v>
       </c>
       <c r="K14">
-        <v>2682.656665264675</v>
+        <v>2737.57119085985</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.5899387310801</v>
+        <v>101.1844376963227</v>
       </c>
       <c r="G15">
-        <v>-0.8912418346289069</v>
+        <v>-0.8812026196737643</v>
       </c>
       <c r="H15">
-        <v>1407.451802384868</v>
+        <v>1352.650773247523</v>
       </c>
       <c r="I15">
-        <v>-1040.564512185265</v>
+        <v>-1060.638453155752</v>
       </c>
       <c r="J15">
-        <v>1346.847206796303</v>
+        <v>1314.167494163406</v>
       </c>
       <c r="K15">
-        <v>2668.635907363825</v>
+        <v>2773.581245904317</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.89041013783729</v>
+        <v>92.93100923517534</v>
       </c>
       <c r="G16">
-        <v>16.17558665455728</v>
+        <v>16.30077963735893</v>
       </c>
       <c r="H16">
-        <v>1492.819936422901</v>
+        <v>1392.848703654242</v>
       </c>
       <c r="I16">
-        <v>-971.9976937789191</v>
+        <v>-993.8368742275285</v>
       </c>
       <c r="J16">
-        <v>1270.569608527739</v>
+        <v>1289.354229004354</v>
       </c>
       <c r="K16">
-        <v>2851.106578802095</v>
+        <v>2799.660883965303</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>83.79829872245941</v>
+        <v>87.66456244583571</v>
       </c>
       <c r="G17">
-        <v>32.55804850435263</v>
+        <v>31.84783116322788</v>
       </c>
       <c r="H17">
-        <v>1501.754549609544</v>
+        <v>1418.555867654583</v>
       </c>
       <c r="I17">
-        <v>-975.5196949808874</v>
+        <v>-942.2610816335341</v>
       </c>
       <c r="J17">
-        <v>1237.407844600674</v>
+        <v>1260.864782136102</v>
       </c>
       <c r="K17">
-        <v>3061.765632910616</v>
+        <v>3112.724332550301</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.72281892864439</v>
+        <v>80.56079828648249</v>
       </c>
       <c r="G18">
-        <v>49.6235347719622</v>
+        <v>50.2377495109132</v>
       </c>
       <c r="H18">
-        <v>1540.88802798987</v>
+        <v>1455.663981564503</v>
       </c>
       <c r="I18">
-        <v>-961.9609156542164</v>
+        <v>-892.9773657100613</v>
       </c>
       <c r="J18">
-        <v>1234.040007567765</v>
+        <v>1282.540660188313</v>
       </c>
       <c r="K18">
-        <v>3018.429747405582</v>
+        <v>3123.84602314792</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.49168951164093</v>
+        <v>75.60686923598104</v>
       </c>
       <c r="G19">
-        <v>62.79552917601698</v>
+        <v>67.30951627650485</v>
       </c>
       <c r="H19">
-        <v>1601.13778283732</v>
+        <v>1596.759857469399</v>
       </c>
       <c r="I19">
-        <v>-926.7373008258839</v>
+        <v>-846.9503727924731</v>
       </c>
       <c r="J19">
-        <v>1164.228133539922</v>
+        <v>1217.472130597548</v>
       </c>
       <c r="K19">
-        <v>2963.850626818447</v>
+        <v>3155.716475051528</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.33587906248465</v>
+        <v>73.87586056059688</v>
       </c>
       <c r="G20">
-        <v>81.54291094214659</v>
+        <v>78.28400733711928</v>
       </c>
       <c r="H20">
-        <v>1611.974965454967</v>
+        <v>1499.675434495243</v>
       </c>
       <c r="I20">
-        <v>-814.9148440565191</v>
+        <v>-852.0778784688697</v>
       </c>
       <c r="J20">
-        <v>1145.996312013966</v>
+        <v>1106.964115886419</v>
       </c>
       <c r="K20">
-        <v>3133.661185502616</v>
+        <v>3161.030370542039</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.28812940866005</v>
+        <v>67.9680382080971</v>
       </c>
       <c r="G21">
-        <v>95.60542645434424</v>
+        <v>100.2011978194331</v>
       </c>
       <c r="H21">
-        <v>1597.794570015157</v>
+        <v>1571.339140483728</v>
       </c>
       <c r="I21">
-        <v>-771.3971963174998</v>
+        <v>-787.6139443856139</v>
       </c>
       <c r="J21">
-        <v>1115.227480672857</v>
+        <v>1032.000982387319</v>
       </c>
       <c r="K21">
-        <v>3159.088830161619</v>
+        <v>3136.333881873419</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.61463768145805</v>
+        <v>66.21337008269744</v>
       </c>
       <c r="G22">
-        <v>113.0696127011512</v>
+        <v>118.9284842244822</v>
       </c>
       <c r="H22">
-        <v>1675.972268451379</v>
+        <v>1542.632213699981</v>
       </c>
       <c r="I22">
-        <v>-761.8376241572661</v>
+        <v>-723.5901170349102</v>
       </c>
       <c r="J22">
-        <v>1055.476045708615</v>
+        <v>1075.130150587262</v>
       </c>
       <c r="K22">
-        <v>3298.522401979628</v>
+        <v>3097.35063789111</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.06163512191883</v>
+        <v>62.47530003316621</v>
       </c>
       <c r="G23">
-        <v>130.8236165404561</v>
+        <v>126.3255552414688</v>
       </c>
       <c r="H23">
-        <v>1616.286742013027</v>
+        <v>1644.774578553383</v>
       </c>
       <c r="I23">
-        <v>-731.4741378738837</v>
+        <v>-712.1862813274161</v>
       </c>
       <c r="J23">
-        <v>960.8764676609828</v>
+        <v>1019.055120765241</v>
       </c>
       <c r="K23">
-        <v>3202.775950422437</v>
+        <v>3049.838162387159</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.67002912074877</v>
+        <v>64.68645201656319</v>
       </c>
       <c r="G24">
-        <v>149.9993799372088</v>
+        <v>151.2835983835089</v>
       </c>
       <c r="H24">
-        <v>1703.139331842832</v>
+        <v>1729.576238095008</v>
       </c>
       <c r="I24">
-        <v>-664.3733624314553</v>
+        <v>-677.020375506797</v>
       </c>
       <c r="J24">
-        <v>962.7924607381336</v>
+        <v>960.3915737126285</v>
       </c>
       <c r="K24">
-        <v>3303.880066840171</v>
+        <v>3138.833528944451</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.17197396983197</v>
+        <v>61.38605282972424</v>
       </c>
       <c r="G25">
-        <v>156.1441237617461</v>
+        <v>167.0475092646564</v>
       </c>
       <c r="H25">
-        <v>1642.727313498823</v>
+        <v>1726.866857594568</v>
       </c>
       <c r="I25">
-        <v>-611.0964290027414</v>
+        <v>-581.9328980811235</v>
       </c>
       <c r="J25">
-        <v>898.2468135782624</v>
+        <v>861.4559927636359</v>
       </c>
       <c r="K25">
-        <v>3152.08258206789</v>
+        <v>3187.886185667067</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.75378424672537</v>
+        <v>58.40928789285904</v>
       </c>
       <c r="G26">
-        <v>186.3222276645052</v>
+        <v>181.3821214265828</v>
       </c>
       <c r="H26">
-        <v>1691.864281236469</v>
+        <v>1710.261833780889</v>
       </c>
       <c r="I26">
-        <v>-553.3053871778487</v>
+        <v>-528.6797194312289</v>
       </c>
       <c r="J26">
-        <v>819.2153064010364</v>
+        <v>821.7504267299764</v>
       </c>
       <c r="K26">
-        <v>2974.524807205473</v>
+        <v>2971.936363320958</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.52713859324459</v>
+        <v>58.8579993441578</v>
       </c>
       <c r="G27">
-        <v>193.7710501458147</v>
+        <v>197.6099183369577</v>
       </c>
       <c r="H27">
-        <v>1651.560475752199</v>
+        <v>1768.23220041473</v>
       </c>
       <c r="I27">
-        <v>-474.4579316424199</v>
+        <v>-490.0700808714011</v>
       </c>
       <c r="J27">
-        <v>770.1960606197136</v>
+        <v>758.1735114004298</v>
       </c>
       <c r="K27">
-        <v>3024.671595651884</v>
+        <v>3187.143192876933</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.28342387181263</v>
+        <v>57.58979490624534</v>
       </c>
       <c r="G28">
-        <v>213.4893464083476</v>
+        <v>207.5376654436299</v>
       </c>
       <c r="H28">
-        <v>1683.603841289688</v>
+        <v>1642.24889086525</v>
       </c>
       <c r="I28">
-        <v>-443.2460820297281</v>
+        <v>-443.7393294616347</v>
       </c>
       <c r="J28">
-        <v>739.0640262439163</v>
+        <v>711.6915223524881</v>
       </c>
       <c r="K28">
-        <v>2866.9489680175</v>
+        <v>2948.346073955449</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.73571352823384</v>
+        <v>53.8889834974062</v>
       </c>
       <c r="G29">
-        <v>238.1016931840331</v>
+        <v>220.713776810763</v>
       </c>
       <c r="H29">
-        <v>1703.414965705413</v>
+        <v>1756.579721118742</v>
       </c>
       <c r="I29">
-        <v>-374.7375706763809</v>
+        <v>-369.3191148431165</v>
       </c>
       <c r="J29">
-        <v>657.8132063812711</v>
+        <v>702.285263775578</v>
       </c>
       <c r="K29">
-        <v>2839.247968799782</v>
+        <v>3025.922929144683</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.10555911920684</v>
+        <v>55.98097065261507</v>
       </c>
       <c r="G30">
-        <v>249.9910711799554</v>
+        <v>249.6654570958411</v>
       </c>
       <c r="H30">
-        <v>1743.715509178203</v>
+        <v>1778.605489985052</v>
       </c>
       <c r="I30">
-        <v>-326.7323942362496</v>
+        <v>-318.8286437254857</v>
       </c>
       <c r="J30">
-        <v>646.3595615737923</v>
+        <v>622.9072346790839</v>
       </c>
       <c r="K30">
-        <v>2851.467741193335</v>
+        <v>2795.318660277314</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.25678252724256</v>
+        <v>51.03496321284239</v>
       </c>
       <c r="G31">
-        <v>261.4092191472068</v>
+        <v>264.2467770466349</v>
       </c>
       <c r="H31">
-        <v>1743.283904260634</v>
+        <v>1743.604270243665</v>
       </c>
       <c r="I31">
-        <v>-257.6323239656319</v>
+        <v>-272.3929698431439</v>
       </c>
       <c r="J31">
-        <v>562.0679232363286</v>
+        <v>592.9087770875843</v>
       </c>
       <c r="K31">
-        <v>2610.353669825615</v>
+        <v>2689.086856013268</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.48148975276357</v>
+        <v>50.53532905774675</v>
       </c>
       <c r="G32">
-        <v>286.1601898585138</v>
+        <v>281.8095492949183</v>
       </c>
       <c r="H32">
-        <v>1816.933994820214</v>
+        <v>1848.699507151418</v>
       </c>
       <c r="I32">
-        <v>-214.3905344700445</v>
+        <v>-211.8022512518555</v>
       </c>
       <c r="J32">
-        <v>525.2532056925869</v>
+        <v>537.6035651479343</v>
       </c>
       <c r="K32">
-        <v>2617.100858625361</v>
+        <v>2413.678573989119</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.28525915016598</v>
+        <v>49.98789398513672</v>
       </c>
       <c r="G33">
-        <v>306.679780709563</v>
+        <v>301.4622988242181</v>
       </c>
       <c r="H33">
-        <v>1852.917351118034</v>
+        <v>1778.782848007673</v>
       </c>
       <c r="I33">
-        <v>-143.987586015364</v>
+        <v>-141.3926816988466</v>
       </c>
       <c r="J33">
-        <v>498.658061982882</v>
+        <v>476.6689614578987</v>
       </c>
       <c r="K33">
-        <v>2358.823101440973</v>
+        <v>2354.762498520591</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.38586706496236</v>
+        <v>49.45116876816942</v>
       </c>
       <c r="G34">
-        <v>305.0025808012192</v>
+        <v>327.2349031281229</v>
       </c>
       <c r="H34">
-        <v>1726.11389796815</v>
+        <v>1891.43031041049</v>
       </c>
       <c r="I34">
-        <v>-80.59527124379946</v>
+        <v>-82.9516282397494</v>
       </c>
       <c r="J34">
-        <v>432.6557278672339</v>
+        <v>446.8809949265994</v>
       </c>
       <c r="K34">
-        <v>2153.280472951295</v>
+        <v>2276.239861839472</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.03811408762696</v>
+        <v>46.83456326294565</v>
       </c>
       <c r="G35">
-        <v>334.8658136984685</v>
+        <v>328.0341239554385</v>
       </c>
       <c r="H35">
-        <v>1786.963208872357</v>
+        <v>1791.780430890272</v>
       </c>
       <c r="I35">
-        <v>-18.86826976148515</v>
+        <v>-19.56702636201152</v>
       </c>
       <c r="J35">
-        <v>389.0705044322415</v>
+        <v>387.6783267712506</v>
       </c>
       <c r="K35">
-        <v>2020.003509448238</v>
+        <v>2118.923884303039</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.88903298776496</v>
+        <v>48.13301693962052</v>
       </c>
       <c r="G36">
-        <v>352.0202573549499</v>
+        <v>340.0818376196153</v>
       </c>
       <c r="H36">
-        <v>1881.442277932078</v>
+        <v>1747.288825751959</v>
       </c>
       <c r="I36">
-        <v>49.5844781781127</v>
+        <v>49.01793335866378</v>
       </c>
       <c r="J36">
-        <v>331.659665911462</v>
+        <v>348.6334993685584</v>
       </c>
       <c r="K36">
-        <v>1835.737675465788</v>
+        <v>1873.741225807848</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.6560354780436</v>
+        <v>44.46187988510527</v>
       </c>
       <c r="G37">
-        <v>377.4049456167741</v>
+        <v>371.8409655004493</v>
       </c>
       <c r="H37">
-        <v>1865.731114675456</v>
+        <v>1897.856324729895</v>
       </c>
       <c r="I37">
-        <v>117.2581713290137</v>
+        <v>112.2312514444291</v>
       </c>
       <c r="J37">
-        <v>311.5483892187767</v>
+        <v>290.8789793318969</v>
       </c>
       <c r="K37">
-        <v>1688.33449002412</v>
+        <v>1550.907296291796</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.73007297032748</v>
+        <v>43.80606632018586</v>
       </c>
       <c r="G38">
-        <v>370.0714680555784</v>
+        <v>384.8434347770068</v>
       </c>
       <c r="H38">
-        <v>1826.788939364789</v>
+        <v>1782.96999177034</v>
       </c>
       <c r="I38">
-        <v>175.9182593697574</v>
+        <v>180.9688581309993</v>
       </c>
       <c r="J38">
-        <v>237.531299395375</v>
+        <v>254.7463958515478</v>
       </c>
       <c r="K38">
-        <v>1394.455788079351</v>
+        <v>1441.049721482609</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.45045313272853</v>
+        <v>44.340644919702</v>
       </c>
       <c r="G39">
-        <v>388.3918520247518</v>
+        <v>412.815650925924</v>
       </c>
       <c r="H39">
-        <v>1892.264201465823</v>
+        <v>1854.977002139672</v>
       </c>
       <c r="I39">
-        <v>247.2759843660514</v>
+        <v>254.876954575976</v>
       </c>
       <c r="J39">
-        <v>190.9946574220891</v>
+        <v>193.0570539516924</v>
       </c>
       <c r="K39">
-        <v>1100.889474916234</v>
+        <v>1165.388823847918</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.37121459223219</v>
+        <v>44.12805569330473</v>
       </c>
       <c r="G40">
-        <v>410.8063216882607</v>
+        <v>419.7169699058708</v>
       </c>
       <c r="H40">
-        <v>1899.702994639939</v>
+        <v>1904.471090704842</v>
       </c>
       <c r="I40">
-        <v>342.3718733076557</v>
+        <v>328.8947810077905</v>
       </c>
       <c r="J40">
-        <v>148.2221500751376</v>
+        <v>157.7779007389123</v>
       </c>
       <c r="K40">
-        <v>908.3176264223827</v>
+        <v>918.9737264353664</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.39649122155029</v>
+        <v>43.83573838543425</v>
       </c>
       <c r="G41">
-        <v>423.1389529404938</v>
+        <v>436.9122364451412</v>
       </c>
       <c r="H41">
-        <v>1906.279325315237</v>
+        <v>1951.003911743936</v>
       </c>
       <c r="I41">
-        <v>421.8239080706212</v>
+        <v>414.0676057769788</v>
       </c>
       <c r="J41">
-        <v>102.7099499536541</v>
+        <v>101.0538446290604</v>
       </c>
       <c r="K41">
-        <v>640.2101444284123</v>
+        <v>601.2667694064863</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.66826168304708</v>
+        <v>44.40746121407495</v>
       </c>
       <c r="G42">
-        <v>442.6941652742596</v>
+        <v>434.7688943338033</v>
       </c>
       <c r="H42">
-        <v>1883.684288112319</v>
+        <v>1955.921693364013</v>
       </c>
       <c r="I42">
-        <v>469.0030564952804</v>
+        <v>490.3070268713753</v>
       </c>
       <c r="J42">
-        <v>51.96364219868768</v>
+        <v>54.23556619601475</v>
       </c>
       <c r="K42">
-        <v>343.8561015152258</v>
+        <v>343.2925896255996</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.00041378770839</v>
+        <v>43.9997662021051</v>
       </c>
       <c r="G43">
-        <v>445.0256586736196</v>
+        <v>470.5798158120385</v>
       </c>
       <c r="H43">
-        <v>1836.359813601447</v>
+        <v>1856.76235078241</v>
       </c>
       <c r="I43">
-        <v>562.9570818349432</v>
+        <v>536.23011436569</v>
       </c>
       <c r="J43">
-        <v>5.154198089782053</v>
+        <v>5.070825544763207</v>
       </c>
       <c r="K43">
-        <v>33.89096508486809</v>
+        <v>34.90267291070283</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.10712524175386</v>
+        <v>42.83157263371167</v>
       </c>
       <c r="G44">
-        <v>490.0009617826158</v>
+        <v>481.4795573841712</v>
       </c>
       <c r="H44">
-        <v>1913.659473568489</v>
+        <v>1952.982000196818</v>
       </c>
       <c r="I44">
-        <v>645.034570343951</v>
+        <v>655.4807227370252</v>
       </c>
       <c r="J44">
-        <v>-44.42800896986132</v>
+        <v>-44.889529349622</v>
       </c>
       <c r="K44">
-        <v>-273.2705165391804</v>
+        <v>-278.6172234306203</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.28659433147908</v>
+        <v>39.26564519545056</v>
       </c>
       <c r="G45">
-        <v>515.3623782412365</v>
+        <v>489.9037129050137</v>
       </c>
       <c r="H45">
-        <v>1866.295087543821</v>
+        <v>1957.323241041585</v>
       </c>
       <c r="I45">
-        <v>709.0730913457269</v>
+        <v>696.254639226417</v>
       </c>
       <c r="J45">
-        <v>-91.24781945738314</v>
+        <v>-95.29548773102728</v>
       </c>
       <c r="K45">
-        <v>-606.7450583436905</v>
+        <v>-609.4869933302672</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.23970541387229</v>
+        <v>40.21739369946168</v>
       </c>
       <c r="G46">
-        <v>494.4946225202397</v>
+        <v>533.9386023392713</v>
       </c>
       <c r="H46">
-        <v>1911.508918849259</v>
+        <v>1912.325056170692</v>
       </c>
       <c r="I46">
-        <v>841.1206288730563</v>
+        <v>825.4099547741362</v>
       </c>
       <c r="J46">
-        <v>-140.1096385995399</v>
+        <v>-147.1297254922618</v>
       </c>
       <c r="K46">
-        <v>-981.4516468289972</v>
+        <v>-1008.540137694508</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.11299204037275</v>
+        <v>40.21004086470219</v>
       </c>
       <c r="G47">
-        <v>544.0760148037533</v>
+        <v>531.0352951242593</v>
       </c>
       <c r="H47">
-        <v>2014.754638407993</v>
+        <v>2004.750510986136</v>
       </c>
       <c r="I47">
-        <v>893.8435322614999</v>
+        <v>908.1905848089868</v>
       </c>
       <c r="J47">
-        <v>-182.77911447214</v>
+        <v>-188.4177134198616</v>
       </c>
       <c r="K47">
-        <v>-1261.991045798051</v>
+        <v>-1316.397717217734</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.07867040018881</v>
+        <v>39.8715417455391</v>
       </c>
       <c r="G48">
-        <v>545.1275307410391</v>
+        <v>531.6987258701676</v>
       </c>
       <c r="H48">
-        <v>1899.977996600173</v>
+        <v>1877.377306374433</v>
       </c>
       <c r="I48">
-        <v>1009.354443501837</v>
+        <v>968.7075742806244</v>
       </c>
       <c r="J48">
-        <v>-243.0491767576553</v>
+        <v>-236.6095588129193</v>
       </c>
       <c r="K48">
-        <v>-1672.227920598146</v>
+        <v>-1670.017804794472</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.2611025998599</v>
+        <v>39.92290556273799</v>
       </c>
       <c r="G49">
-        <v>552.7622578561242</v>
+        <v>587.3877735887061</v>
       </c>
       <c r="H49">
-        <v>1999.135182417033</v>
+        <v>1920.891556594475</v>
       </c>
       <c r="I49">
-        <v>1064.588153929851</v>
+        <v>1092.235545144338</v>
       </c>
       <c r="J49">
-        <v>-286.7960744782879</v>
+        <v>-296.102072637342</v>
       </c>
       <c r="K49">
-        <v>-1996.84777469564</v>
+        <v>-2084.583548943241</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.28649910589054</v>
+        <v>38.14514643171358</v>
       </c>
       <c r="G50">
-        <v>565.8147509867033</v>
+        <v>571.0696907730528</v>
       </c>
       <c r="H50">
-        <v>2035.308683171021</v>
+        <v>2005.95841114586</v>
       </c>
       <c r="I50">
-        <v>1126.533251524259</v>
+        <v>1197.654381217943</v>
       </c>
       <c r="J50">
-        <v>-327.5330347546966</v>
+        <v>-347.9012149650945</v>
       </c>
       <c r="K50">
-        <v>-2481.973693005885</v>
+        <v>-2425.346489907656</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.52638895254164</v>
+        <v>38.88849435758059</v>
       </c>
       <c r="G51">
-        <v>608.6480212147374</v>
+        <v>593.4415960325953</v>
       </c>
       <c r="H51">
-        <v>1900.242153972066</v>
+        <v>1971.638882050568</v>
       </c>
       <c r="I51">
-        <v>1289.857275359727</v>
+        <v>1314.740112307868</v>
       </c>
       <c r="J51">
-        <v>-387.2813168146586</v>
+        <v>-384.7774617491404</v>
       </c>
       <c r="K51">
-        <v>-3026.006509809319</v>
+        <v>-3040.486208166139</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.36694198361575</v>
+        <v>37.71876788381083</v>
       </c>
       <c r="G52">
-        <v>597.5634775508896</v>
+        <v>635.5467556410898</v>
       </c>
       <c r="H52">
-        <v>2021.49363085515</v>
+        <v>1951.576906701204</v>
       </c>
       <c r="I52">
-        <v>1323.31850395691</v>
+        <v>1375.749798780056</v>
       </c>
       <c r="J52">
-        <v>-442.2352694530007</v>
+        <v>-452.3971854083938</v>
       </c>
       <c r="K52">
-        <v>-3235.596158537581</v>
+        <v>-3340.35982558398</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.08661841566955</v>
+        <v>36.8435177493723</v>
       </c>
       <c r="G53">
-        <v>613.5370320658724</v>
+        <v>622.6023511287361</v>
       </c>
       <c r="H53">
-        <v>1943.747198955613</v>
+        <v>2043.60558775553</v>
       </c>
       <c r="I53">
-        <v>1440.095026771733</v>
+        <v>1399.514317106064</v>
       </c>
       <c r="J53">
-        <v>-487.6502577546887</v>
+        <v>-498.380462525448</v>
       </c>
       <c r="K53">
-        <v>-3903.835684069544</v>
+        <v>-3719.044869518516</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.91338855611832</v>
+        <v>37.73329203830038</v>
       </c>
       <c r="G54">
-        <v>637.699160546687</v>
+        <v>648.4961271870851</v>
       </c>
       <c r="H54">
-        <v>1983.737180161672</v>
+        <v>2054.915724023802</v>
       </c>
       <c r="I54">
-        <v>1580.891329064786</v>
+        <v>1513.736224888862</v>
       </c>
       <c r="J54">
-        <v>-526.6857971900753</v>
+        <v>-553.0640194837986</v>
       </c>
       <c r="K54">
-        <v>-4419.86637162584</v>
+        <v>-4320.161659819979</v>
       </c>
     </row>
   </sheetData>
